--- a/VSGA/jna/hari ke-1/andri/Kelompok 8 - Tugas Project 1 - Andri Firman Saputra/tugas 1/tugas 1.xlsx
+++ b/VSGA/jna/hari ke-1/andri/Kelompok 8 - Tugas Project 1 - Andri Firman Saputra/tugas 1/tugas 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\vsga\jna\tugas 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Pelatihan_Kominfo\VSGA\jna\hari ke-1\andri\Kelompok 8 - Tugas Project 1 - Andri Firman Saputra\tugas 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE8E2DA-3F91-430E-BAE2-8D88874AABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05F2F13-3171-4FC3-98BD-F40853B4CBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{ED91DD6A-B022-4091-8F58-68686108E16E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{ED91DD6A-B022-4091-8F58-68686108E16E}"/>
   </bookViews>
   <sheets>
     <sheet name="jadwal" sheetId="1" r:id="rId1"/>
@@ -863,6 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -889,6 +890,66 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,66 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -992,7 +993,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1518,7 +1518,7 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="22" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1568,7 +1568,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="22" t="s">
         <v>40</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1602,7 +1602,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
@@ -1647,96 +1647,96 @@
       <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="44">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1776,148 +1776,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1926,39 +1926,33 @@
       <c r="B17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="71"/>
+      <c r="D17" s="61"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -1971,6 +1965,12 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1982,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907FFD37-32CD-4BD2-B20D-E16A7C1D3354}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2218,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D74C6-8A30-4C92-ABA6-6419A23619FB}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -2254,13 +2254,13 @@
       <c r="A3" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2368,13 +2368,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="33">
         <f>SUM(F4:F8)</f>
         <v>2060000</v>
@@ -2384,13 +2384,13 @@
       <c r="A10" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2477,27 +2477,27 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="33">
         <f>SUM(F11:F14)</f>
         <v>2170000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82">
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="35">
         <f>F9+F15</f>
         <v>4230000</v>
       </c>
